--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H2">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I2">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J2">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N2">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q2">
-        <v>6214.3947061795</v>
+        <v>6503.738332675184</v>
       </c>
       <c r="R2">
-        <v>55929.55235561549</v>
+        <v>58533.64499407666</v>
       </c>
       <c r="S2">
-        <v>0.175666262625871</v>
+        <v>0.2625758119074502</v>
       </c>
       <c r="T2">
-        <v>0.175666262625871</v>
+        <v>0.2625758119074501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H3">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I3">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J3">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P3">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q3">
-        <v>567.4970167581329</v>
+        <v>727.2370375775323</v>
       </c>
       <c r="R3">
-        <v>5107.473150823196</v>
+        <v>6545.133338197791</v>
       </c>
       <c r="S3">
-        <v>0.01604180048076157</v>
+        <v>0.02936078387897624</v>
       </c>
       <c r="T3">
-        <v>0.01604180048076157</v>
+        <v>0.02936078387897623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H4">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I4">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J4">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N4">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O4">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P4">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q4">
-        <v>30.79253512007334</v>
+        <v>10.80466073482445</v>
       </c>
       <c r="R4">
-        <v>277.13281608066</v>
+        <v>97.24194661342001</v>
       </c>
       <c r="S4">
-        <v>0.0008704322491682611</v>
+        <v>0.0004362172061224539</v>
       </c>
       <c r="T4">
-        <v>0.0008704322491682612</v>
+        <v>0.0004362172061224537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H5">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I5">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J5">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N5">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O5">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P5">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q5">
-        <v>626.9751232588402</v>
+        <v>779.6832650286198</v>
       </c>
       <c r="R5">
-        <v>5642.776109329562</v>
+        <v>7017.149385257579</v>
       </c>
       <c r="S5">
-        <v>0.01772310608992302</v>
+        <v>0.03147819851807161</v>
       </c>
       <c r="T5">
-        <v>0.01772310608992302</v>
+        <v>0.03147819851807159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H6">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I6">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J6">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N6">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O6">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P6">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q6">
-        <v>5.992919388626111</v>
+        <v>11.38988073258622</v>
       </c>
       <c r="R6">
-        <v>53.936274497635</v>
+        <v>102.508926593276</v>
       </c>
       <c r="S6">
-        <v>0.0001694056784277359</v>
+        <v>0.0004598443276634228</v>
       </c>
       <c r="T6">
-        <v>0.0001694056784277359</v>
+        <v>0.0004598443276634226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>25.352955</v>
       </c>
       <c r="I7">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J7">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N7">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q7">
-        <v>6940.19846212301</v>
+        <v>5667.919969539306</v>
       </c>
       <c r="R7">
-        <v>62461.78615910708</v>
+        <v>51011.27972585375</v>
       </c>
       <c r="S7">
-        <v>0.196183020771219</v>
+        <v>0.228831267757365</v>
       </c>
       <c r="T7">
-        <v>0.196183020771219</v>
+        <v>0.2288312677573648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>25.352955</v>
       </c>
       <c r="I8">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J8">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P8">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q8">
         <v>633.7772396477751</v>
@@ -948,10 +948,10 @@
         <v>5703.995156829976</v>
       </c>
       <c r="S8">
-        <v>0.01791538585657546</v>
+        <v>0.02558752593610663</v>
       </c>
       <c r="T8">
-        <v>0.01791538585657546</v>
+        <v>0.02558752593610661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>25.352955</v>
       </c>
       <c r="I9">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J9">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N9">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O9">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P9">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q9">
-        <v>34.3889171817</v>
+        <v>9.416115656950002</v>
       </c>
       <c r="R9">
-        <v>309.5002546353</v>
+        <v>84.74504091255001</v>
       </c>
       <c r="S9">
-        <v>0.0009720934769484125</v>
+        <v>0.0003801573936664068</v>
       </c>
       <c r="T9">
-        <v>0.0009720934769484126</v>
+        <v>0.0003801573936664065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>25.352955</v>
       </c>
       <c r="I10">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J10">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N10">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O10">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P10">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q10">
-        <v>700.20202963669</v>
+        <v>679.4834173400051</v>
       </c>
       <c r="R10">
-        <v>6301.81826673021</v>
+        <v>6115.350756060046</v>
       </c>
       <c r="S10">
-        <v>0.0197930578028807</v>
+        <v>0.0274328241481254</v>
       </c>
       <c r="T10">
-        <v>0.01979305780288071</v>
+        <v>0.02743282414812539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>25.352955</v>
       </c>
       <c r="I11">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J11">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N11">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O11">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P11">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q11">
-        <v>6.692856165575</v>
+        <v>9.926126967710003</v>
       </c>
       <c r="R11">
-        <v>60.235705490175</v>
+        <v>89.33514270939001</v>
       </c>
       <c r="S11">
-        <v>0.0001891912381635448</v>
+        <v>0.000400748110444169</v>
       </c>
       <c r="T11">
-        <v>0.0001891912381635448</v>
+        <v>0.0004007481104441687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H12">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I12">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J12">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N12">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q12">
-        <v>7755.347885072989</v>
+        <v>2622.716413644412</v>
       </c>
       <c r="R12">
-        <v>69798.13096565689</v>
+        <v>23604.44772279971</v>
       </c>
       <c r="S12">
-        <v>0.219225369926941</v>
+        <v>0.1058870847026236</v>
       </c>
       <c r="T12">
-        <v>0.219225369926941</v>
+        <v>0.1058870847026236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H13">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I13">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J13">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>224.983445</v>
       </c>
       <c r="O13">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P13">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q13">
-        <v>708.2164871703422</v>
+        <v>293.26772042506</v>
       </c>
       <c r="R13">
-        <v>6373.94838453308</v>
+        <v>2639.40948382554</v>
       </c>
       <c r="S13">
-        <v>0.02001960759066783</v>
+        <v>0.01184011500124156</v>
       </c>
       <c r="T13">
-        <v>0.02001960759066784</v>
+        <v>0.01184011500124156</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H14">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I14">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J14">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N14">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O14">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P14">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q14">
-        <v>38.42801003322666</v>
+        <v>4.35711887588</v>
       </c>
       <c r="R14">
-        <v>345.8520902990399</v>
+        <v>39.21406988292</v>
       </c>
       <c r="S14">
-        <v>0.001086269093267249</v>
+        <v>0.0001759102177686899</v>
       </c>
       <c r="T14">
-        <v>0.001086269093267249</v>
+        <v>0.0001759102177686898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H15">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I15">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J15">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N15">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O15">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P15">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q15">
-        <v>782.4430899639697</v>
+        <v>314.417338465292</v>
       </c>
       <c r="R15">
-        <v>7041.987809675727</v>
+        <v>2829.756046187628</v>
       </c>
       <c r="S15">
-        <v>0.02211781836044814</v>
+        <v>0.01269398977977406</v>
       </c>
       <c r="T15">
-        <v>0.02211781836044815</v>
+        <v>0.01269398977977406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H16">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I16">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J16">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N16">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O16">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P16">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q16">
-        <v>7.478954412048887</v>
+        <v>4.593116392264001</v>
       </c>
       <c r="R16">
-        <v>67.31058970843998</v>
+        <v>41.338047530376</v>
       </c>
       <c r="S16">
-        <v>0.0002114123791666264</v>
+        <v>0.0001854381594389971</v>
       </c>
       <c r="T16">
-        <v>0.0002114123791666264</v>
+        <v>0.000185438159438997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H17">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I17">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J17">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N17">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q17">
-        <v>3370.228002006435</v>
+        <v>2056.761762642696</v>
       </c>
       <c r="R17">
-        <v>30332.05201805791</v>
+        <v>18510.85586378426</v>
       </c>
       <c r="S17">
-        <v>0.09526838659295582</v>
+        <v>0.08303776414448132</v>
       </c>
       <c r="T17">
-        <v>0.09526838659295583</v>
+        <v>0.08303776414448127</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H18">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I18">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J18">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>224.983445</v>
       </c>
       <c r="O18">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P18">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q18">
-        <v>307.7684034185211</v>
+        <v>229.9836270706434</v>
       </c>
       <c r="R18">
-        <v>2769.91563076669</v>
+        <v>2069.85264363579</v>
       </c>
       <c r="S18">
-        <v>0.008699885948522385</v>
+        <v>0.00928514256179414</v>
       </c>
       <c r="T18">
-        <v>0.008699885948522387</v>
+        <v>0.009285142561794135</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H19">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I19">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J19">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N19">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O19">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P19">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q19">
-        <v>16.69959328641333</v>
+        <v>3.416898393046667</v>
       </c>
       <c r="R19">
-        <v>150.29633957772</v>
+        <v>30.75208553742</v>
       </c>
       <c r="S19">
-        <v>0.0004720580649760198</v>
+        <v>0.0001379506406726002</v>
       </c>
       <c r="T19">
-        <v>0.0004720580649760198</v>
+        <v>0.0001379506406726001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H20">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I20">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J20">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N20">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O20">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P20">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q20">
-        <v>340.0249287138448</v>
+        <v>246.5693797099087</v>
       </c>
       <c r="R20">
-        <v>3060.224358424603</v>
+        <v>2219.124417389178</v>
       </c>
       <c r="S20">
-        <v>0.009611701742632119</v>
+        <v>0.009954760132887269</v>
       </c>
       <c r="T20">
-        <v>0.009611701742632121</v>
+        <v>0.009954760132887265</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H21">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I21">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J21">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N21">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O21">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P21">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q21">
-        <v>3.250116172574443</v>
+        <v>3.601970124497334</v>
       </c>
       <c r="R21">
-        <v>29.25104555316999</v>
+        <v>32.41773112047601</v>
       </c>
       <c r="S21">
-        <v>9.187310882720772E-05</v>
+        <v>0.0001454225526194001</v>
       </c>
       <c r="T21">
-        <v>9.187310882720774E-05</v>
+        <v>0.0001454225526194001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H22">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I22">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J22">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N22">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O22">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P22">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q22">
-        <v>5245.962790957286</v>
+        <v>3202.889514135062</v>
       </c>
       <c r="R22">
-        <v>47213.66511861557</v>
+        <v>28826.00562721556</v>
       </c>
       <c r="S22">
-        <v>0.1482909794006946</v>
+        <v>0.1293104475619245</v>
       </c>
       <c r="T22">
-        <v>0.1482909794006946</v>
+        <v>0.1293104475619244</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H23">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I23">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J23">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>224.983445</v>
       </c>
       <c r="O23">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P23">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q23">
-        <v>479.0600492324822</v>
+        <v>358.14169679081</v>
       </c>
       <c r="R23">
-        <v>4311.54044309234</v>
+        <v>3223.27527111729</v>
       </c>
       <c r="S23">
-        <v>0.01354189625875449</v>
+        <v>0.01445927588142642</v>
       </c>
       <c r="T23">
-        <v>0.0135418962587545</v>
+        <v>0.01445927588142641</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H24">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I24">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J24">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N24">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O24">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P24">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q24">
-        <v>25.99392235554667</v>
+        <v>5.32096046938</v>
       </c>
       <c r="R24">
-        <v>233.94530119992</v>
+        <v>47.88864422442</v>
       </c>
       <c r="S24">
-        <v>0.0007347867985670983</v>
+        <v>0.0002148234513611202</v>
       </c>
       <c r="T24">
-        <v>0.0007347867985670984</v>
+        <v>0.0002148234513611201</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H25">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I25">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J25">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N25">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O25">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P25">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q25">
-        <v>529.2692728707938</v>
+        <v>383.969837986942</v>
       </c>
       <c r="R25">
-        <v>4763.423455837144</v>
+        <v>3455.728541882479</v>
       </c>
       <c r="S25">
-        <v>0.01496119243849637</v>
+        <v>0.01550203695171152</v>
       </c>
       <c r="T25">
-        <v>0.01496119243849637</v>
+        <v>0.01550203695171152</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H26">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I26">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J26">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N26">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O26">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P26">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q26">
-        <v>5.059001497068889</v>
+        <v>5.609163176564</v>
       </c>
       <c r="R26">
-        <v>45.53101347362</v>
+        <v>50.48246858907601</v>
       </c>
       <c r="S26">
-        <v>0.000143006025144343</v>
+        <v>0.0002264590762835695</v>
       </c>
       <c r="T26">
-        <v>0.000143006025144343</v>
+        <v>0.0002264590762835694</v>
       </c>
     </row>
   </sheetData>
